--- a/AnalysingVolume/CodQ1.xlsx
+++ b/AnalysingVolume/CodQ1.xlsx
@@ -4,19 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="19980" windowHeight="8070"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="15945" windowHeight="8070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="134">
   <si>
     <t>SG17.22A</t>
   </si>
@@ -189,7 +187,7 @@
     <t>T83505-Nguyễn Thanh Trí</t>
   </si>
   <si>
-    <t>T101904-Trần Thanh Tú</t>
+    <t>T211130-Lã Duy Tùng</t>
   </si>
   <si>
     <t>SG17.22G</t>
@@ -297,33 +295,33 @@
     <t>T266679-Nguyễn Thanh Sơn</t>
   </si>
   <si>
-    <t>T211130-Lã Duy Tùng</t>
-  </si>
-  <si>
     <t>T209722-Đào Quốc Thanh</t>
   </si>
   <si>
+    <t>PARTIME T</t>
+  </si>
+  <si>
+    <t>T149715-Nguyễn Quang Tường</t>
+  </si>
+  <si>
+    <t>T247592-Võ Đình Bạch</t>
+  </si>
+  <si>
+    <t>T89374-PT Võ Thái Thanh</t>
+  </si>
+  <si>
+    <t>T226778 - Võ Ngọc Hoàng Thiên</t>
+  </si>
+  <si>
+    <t>T231212 - Võ Ngọc Bích Thùy</t>
+  </si>
+  <si>
+    <t>T226786 - Dương Tường Long</t>
+  </si>
+  <si>
     <t>PARTIME</t>
   </si>
   <si>
-    <t>T149715-Nguyễn Quang Tường</t>
-  </si>
-  <si>
-    <t>T247592-Võ Đình Bạch</t>
-  </si>
-  <si>
-    <t>T89374-PT Võ Thái Thanh</t>
-  </si>
-  <si>
-    <t>T226778 - Võ Ngọc Hoàng Thiên</t>
-  </si>
-  <si>
-    <t>T231212 - Võ Ngọc Bích Thùy</t>
-  </si>
-  <si>
-    <t>T226786 - Dương Tường Long</t>
-  </si>
-  <si>
     <t>T226806 - Trần Minh Khánh</t>
   </si>
   <si>
@@ -372,22 +370,46 @@
     <t>T255678-Nguyễn Huy Hoàng</t>
   </si>
   <si>
+    <t>T264564-Phạm Văn Tuấn</t>
+  </si>
+  <si>
+    <t>T237832-Trần Bảo Hiếu</t>
+  </si>
+  <si>
+    <t>T261786-La Tiến Cường</t>
+  </si>
+  <si>
+    <t>T201828-Võ Đình Bạch</t>
+  </si>
+  <si>
+    <t>T261933-Nguyễn Xuân Trường</t>
+  </si>
+  <si>
+    <t>T241548-Nguyễn Ngọc Huỳnh</t>
+  </si>
+  <si>
     <t>T240944-Nguyễn Hoàng Trọng</t>
   </si>
   <si>
-    <t>T237832-Trần Bảo Hiếu</t>
-  </si>
-  <si>
-    <t>T261786-La Tiến Cường</t>
-  </si>
-  <si>
-    <t>T201828-Võ Đình Bạch</t>
-  </si>
-  <si>
-    <t>T261933-Nguyễn Xuân Trường</t>
-  </si>
-  <si>
-    <t>T241548-Nguyễn Ngọc Huỳnh</t>
+    <t>T268974-Trần Lâm Minh Đại</t>
+  </si>
+  <si>
+    <t>T243284-Nguyễn Ngọc Huỳnh</t>
+  </si>
+  <si>
+    <t>T269709-Võ Phú Lộc</t>
+  </si>
+  <si>
+    <t>T263826-Đinh Tuấn Kiệt</t>
+  </si>
+  <si>
+    <t>T269250-Phạm Trung Tuấn</t>
+  </si>
+  <si>
+    <t>T266355-Từ Duy Ngọc Bảo</t>
+  </si>
+  <si>
+    <t>T266658-Hồ Văn Thiện</t>
   </si>
   <si>
     <t>Cart</t>
@@ -435,7 +457,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
     <dxf>
       <border>
         <left style="thin">
@@ -475,16 +497,52 @@
     <dxf>
       <border>
         <left style="thin">
-          <color auto="1"/>
+          <color theme="2"/>
         </left>
         <right style="thin">
-          <color auto="1"/>
+          <color theme="2"/>
         </right>
         <top style="thin">
-          <color auto="1"/>
+          <color theme="2"/>
         </top>
         <bottom style="thin">
-          <color auto="1"/>
+          <color theme="2"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="2"/>
+        </left>
+        <right style="thin">
+          <color theme="2"/>
+        </right>
+        <top style="thin">
+          <color theme="2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="2"/>
+        </left>
+        <right style="thin">
+          <color theme="2"/>
+        </right>
+        <top style="thin">
+          <color theme="2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -967,20 +1025,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1652,7 +1710,7 @@
         <v>22</v>
       </c>
       <c r="B85" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1660,60 +1718,60 @@
         <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" t="s">
         <v>95</v>
-      </c>
-      <c r="B87" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B93" t="s">
         <v>102</v>
@@ -1721,7 +1779,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B94" t="s">
         <v>103</v>
@@ -1729,7 +1787,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B95" t="s">
         <v>104</v>
@@ -1737,7 +1795,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B96" t="s">
         <v>105</v>
@@ -1841,7 +1899,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B109" t="s">
         <v>119</v>
@@ -1849,7 +1907,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B110" t="s">
         <v>120</v>
@@ -1865,7 +1923,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B112" t="s">
         <v>122</v>
@@ -1873,7 +1931,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B113" t="s">
         <v>123</v>
@@ -1884,42 +1942,80 @@
         <v>71</v>
       </c>
       <c r="B114" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B115" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>106</v>
+      </c>
+      <c r="B116" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>106</v>
+      </c>
+      <c r="B117" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>106</v>
+      </c>
+      <c r="B118" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>94</v>
+      </c>
+      <c r="B119" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>106</v>
+      </c>
+      <c r="B120" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>106</v>
+      </c>
+      <c r="B121" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>106</v>
+      </c>
+      <c r="B122" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <protectedRanges>
+    <protectedRange sqref="A112:A114" name="Range1"/>
+    <protectedRange sqref="A99:A105" name="Range1_2"/>
+    <protectedRange sqref="A106:A107 A111 A116:A118 A120:A122" name="Range1_3"/>
+    <protectedRange sqref="A109:A110" name="Range1_10"/>
+  </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>